--- a/modelacao/use_casaes/submeter_receita.xlsx
+++ b/modelacao/use_casaes/submeter_receita.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\use casaes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LI4\modelacao\use_casaes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32C83F-4605-4EF4-AB0A-518BEF614574}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AFB7C0-A3DF-43FA-AA1E-BBA92EE2578E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Actor input</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Exception 1 [Cancela alteração]  (passo 2)</t>
   </si>
   <si>
-    <t>Alternativa 1 [Alterações inválidas]  (passo 2)</t>
-  </si>
-  <si>
-    <t>Volta ao passo 2</t>
-  </si>
-  <si>
     <t>Submeter Receita</t>
   </si>
   <si>
@@ -152,7 +146,10 @@
     <t>2. Introduz informações e submete</t>
   </si>
   <si>
-    <t>2.2. Informa que receita é inválida ou incompleta</t>
+    <t>3.1. Informa que receita é inválida ou incompleta</t>
+  </si>
+  <si>
+    <t>Exceção 2 [Alterações inválidas]  (passo 3)</t>
   </si>
 </sst>
 </file>
@@ -493,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -530,77 +527,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -609,10 +537,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,38 +943,38 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -989,75 +985,75 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="25"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="25"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="25"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4"/>
@@ -1066,7 +1062,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1082,7 +1078,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4"/>
@@ -1091,14 +1087,14 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
     </row>
@@ -1121,7 +1117,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1135,169 +1131,161 @@
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="21"/>
+      <c r="B1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="38"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="30" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="31"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="31"/>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="31"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="16" t="s">
+    <row r="14" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>28</v>
+      <c r="A16" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="36"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:C1"/>
@@ -1311,6 +1299,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
